--- a/现金流量表/688571.xlsx
+++ b/现金流量表/688571.xlsx
@@ -744,51 +744,57 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>88254969.09</v>
+        <v>68004387.54000001</v>
       </c>
       <c r="P2" t="n">
-        <v>400.7452820025</v>
+        <v>146.8657919132</v>
       </c>
       <c r="Q2" t="n">
-        <v>791476635.75</v>
+        <v>782790548.14</v>
       </c>
       <c r="R2" t="n">
-        <v>3593.9112648557</v>
+        <v>1690.5549467255</v>
       </c>
       <c r="S2" t="n">
-        <v>149320088.25</v>
+        <v>156208401.52</v>
       </c>
       <c r="T2" t="n">
-        <v>678.0277812274001</v>
+        <v>337.3557416313</v>
       </c>
       <c r="U2" t="n">
-        <v>-29705449.9</v>
+        <v>-91905660.54000001</v>
       </c>
       <c r="V2" t="n">
-        <v>-134.8855369837</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-198.4842170452</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3903093.15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.4293218</v>
+      </c>
       <c r="Y2" t="n">
-        <v>29867730.56</v>
+        <v>47146429.31</v>
       </c>
       <c r="Z2" t="n">
-        <v>135.622415706</v>
+        <v>101.8198667317</v>
       </c>
       <c r="AA2" t="n">
-        <v>-35696257.33</v>
+        <v>-21705582.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>-162.0883997541</v>
+        <v>-46.8764983866</v>
       </c>
       <c r="AC2" t="n">
-        <v>22022709.45</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>-46303762.54</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-310.2546130626</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
